--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed1/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.752</v>
+        <v>-12.462</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -533,7 +533,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.692</v>
+        <v>-12.89</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -659,7 +659,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.14</v>
+        <v>-13.027</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.88</v>
+        <v>-13.418</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.024</v>
+        <v>-12.129</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.458</v>
+        <v>-12.608</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -995,7 +995,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.628</v>
+        <v>-12.232</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.546</v>
+        <v>-11.382</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.742</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.766</v>
+        <v>-11.491</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.47</v>
+        <v>-12.005</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
